--- a/datas/shared/UnitsConfig.xlsx
+++ b/datas/shared/UnitsConfig.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="1860" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="11220" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
-    <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -324,22 +319,6 @@
   </si>
   <si>
     <t>INT_archer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2829,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>54</v>
@@ -4714,7 +4693,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4767,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>55</v>
@@ -5174,202 +5153,6 @@
       </c>
       <c r="P9" s="1">
         <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
